--- a/_4 Validation/Calibration/Preliminary Level Calibration Evaluation/Cal 5-point.xlsx
+++ b/_4 Validation/Calibration/Preliminary Level Calibration Evaluation/Cal 5-point.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\OLS Level Test Project\_Project Management\_4 Validation\Calibration\Level Calibration Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AllenProjects\PM_Folder\_4 Validation\Calibration\Preliminary Level Calibration Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C70CFEB-9A43-485E-8D04-5701F07C38EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B42322D-BCDF-4B81-AD81-18CEBBC8275E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="540" windowWidth="16410" windowHeight="14730" activeTab="6" xr2:uid="{897E71F3-2EF0-41B3-84FF-10CE67F27C9D}"/>
+    <workbookView xWindow="290" yWindow="840" windowWidth="19200" windowHeight="9800" activeTab="7" xr2:uid="{897E71F3-2EF0-41B3-84FF-10CE67F27C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="P5" sheetId="6" r:id="rId5"/>
     <sheet name="hist" sheetId="8" r:id="rId6"/>
     <sheet name="aggr" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="76">
   <si>
     <t>SP</t>
   </si>
@@ -182,15 +184,106 @@
   <si>
     <t>Empty 2P</t>
   </si>
+  <si>
+    <t>Test Number</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Confidence Level(95.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI = </t>
+  </si>
+  <si>
+    <t>LSL `</t>
+  </si>
+  <si>
+    <t>ULL</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>Resolution &lt; 5%</t>
+  </si>
+  <si>
+    <t>MI % tol</t>
+  </si>
+  <si>
+    <t>Tol band</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Cg</t>
+  </si>
+  <si>
+    <t> If Cg = 1.33, about 75% of the study variation will fit into the tolerance band (P)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20% Recommended Gage variation to tolerance </t>
+  </si>
+  <si>
+    <t>P * tolerance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +305,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +345,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -261,11 +380,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF2F5F7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF2F5F7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF2F5F7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF2F5F7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF2F5F7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF2F5F7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF2F5F7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF2F5F7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF2F5F7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF2F5F7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF2F5F7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF2F5F7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF2F5F7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF2F5F7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF2F5F7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF2F5F7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF2F5F7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF2F5F7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -277,9 +489,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,6 +723,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -482,7 +731,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1800,6 +2048,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1807,7 +2056,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1998,6 +2246,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2005,7 +2254,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2196,6 +2444,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2203,7 +2452,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2394,6 +2642,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2401,7 +2650,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2586,6 +2834,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2593,7 +2842,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3264,6 +3512,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3271,7 +3520,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3666,6 +3914,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3673,7 +3922,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5556,21 +5804,21 @@
       <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5578,7 +5826,7 @@
         <v>0.99999970686026951</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5586,7 +5834,7 @@
         <v>0.99999941372062495</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5594,7 +5842,7 @@
         <v>0.9999992182941666</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5602,7 +5850,7 @@
         <v>1.8218553225604573E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -5610,12 +5858,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -5633,7 +5881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5653,7 +5901,7 @@
         <v>1.9052232146242412E-10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5667,7 +5915,7 @@
         <v>3.3191568163418684E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -5681,8 +5929,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -5709,7 +5957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5738,7 +5986,7 @@
         <v>9.5970637369481313</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -5767,13 +6015,13 @@
         <v>-0.9950344573319333</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -5784,7 +6032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -5795,7 +6043,7 @@
         <v>-1.79032259459877E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -5806,7 +6054,7 @@
         <v>2.1226087939671956E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5817,7 +6065,7 @@
         <v>8.8292832412140143E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -5828,7 +6076,7 @@
         <v>-1.2112676668909472E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -5853,21 +6101,21 @@
       <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5875,7 +6123,7 @@
         <v>0.99999970686026951</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5883,7 +6131,7 @@
         <v>0.99999941372062495</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5891,7 +6139,7 @@
         <v>0.9999992182941666</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5899,7 +6147,7 @@
         <v>1.8218553225604573E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -5907,12 +6155,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -5930,7 +6178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5950,7 +6198,7 @@
         <v>1.9052232146242412E-10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5964,7 +6212,7 @@
         <v>3.3191568163418684E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -5978,8 +6226,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -6006,7 +6254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6035,7 +6283,7 @@
         <v>9.5970637369481313</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -6064,13 +6312,13 @@
         <v>-0.9950344573319333</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -6081,7 +6329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6092,7 +6340,7 @@
         <v>-1.79032259459877E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6103,7 +6351,7 @@
         <v>2.1226087939671956E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6114,7 +6362,7 @@
         <v>8.8292832412140143E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -6125,7 +6373,7 @@
         <v>-1.2112676668909472E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -6150,21 +6398,21 @@
       <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6172,7 +6420,7 @@
         <v>0.99999906590710907</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6180,7 +6428,7 @@
         <v>0.99999813181509067</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6188,7 +6436,7 @@
         <v>0.99999750908678753</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6196,7 +6444,7 @@
         <v>3.211053872482497E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6204,12 +6452,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -6227,7 +6475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6247,7 +6495,7 @@
         <v>1.0837245128487938E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6261,7 +6509,7 @@
         <v>1.0310866971984841E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -6275,8 +6523,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -6303,7 +6551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6332,7 +6580,7 @@
         <v>9.6015843330141557</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -6361,13 +6609,13 @@
         <v>-0.9933812672024831</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -6378,7 +6626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6389,7 +6637,7 @@
         <v>-6.0967445129689324E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6400,7 +6648,7 @@
         <v>-1.5002065081173299E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6411,7 +6659,7 @@
         <v>4.7187293782391393E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -6422,7 +6670,7 @@
         <v>-1.5533186518190689E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -6447,21 +6695,21 @@
       <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6469,7 +6717,7 @@
         <v>0.99999991207010797</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6477,7 +6725,7 @@
         <v>0.9999998241402237</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6485,7 +6733,7 @@
         <v>0.99999976552029823</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6493,7 +6741,7 @@
         <v>1.0277560258445818E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6501,12 +6749,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -6524,7 +6772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6544,7 +6792,7 @@
         <v>3.1299590917523677E-11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6558,7 +6806,7 @@
         <v>1.0562824486598488E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -6572,8 +6820,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -6600,7 +6848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6629,7 +6877,7 @@
         <v>9.5992649878387351</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -6658,13 +6906,13 @@
         <v>-0.99596462327905422</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -6675,7 +6923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6686,7 +6934,7 @@
         <v>-2.3071318873135738E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6697,7 +6945,7 @@
         <v>-4.179972121836073E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6708,7 +6956,7 @@
         <v>1.0694983398540359E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -6719,7 +6967,7 @@
         <v>1.3677896697776859E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -6744,21 +6992,21 @@
       <selection activeCell="B49" sqref="B49:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6766,7 +7014,7 @@
         <v>0.99993379112403946</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6774,7 +7022,7 @@
         <v>0.99986758663169428</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6782,7 +7030,7 @@
         <v>0.99982344884225904</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6790,7 +7038,7 @@
         <v>2.6996777392211561E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6798,12 +7046,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -6821,7 +7069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6841,7 +7089,7 @@
         <v>6.4670149737966898E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6855,7 +7103,7 @@
         <v>7.2882598956462523E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -6869,8 +7117,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -6897,7 +7145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6926,7 +7174,7 @@
         <v>9.7289796747980475</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -6955,13 +7203,13 @@
         <v>-0.98604921455235672</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -6972,7 +7220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6983,7 +7231,7 @@
         <v>-3.0542054427135312E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6994,7 +7242,7 @@
         <v>3.0395026356841104E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -7005,7 +7253,7 @@
         <v>1.2719087357568881E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -7016,7 +7264,7 @@
         <v>3.8479235442689941E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -7027,19 +7275,19 @@
         <v>-1.2956851641702904E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -7047,7 +7295,7 @@
         <v>0.99999933069886326</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -7055,7 +7303,7 @@
         <v>0.9999986613981745</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -7063,7 +7311,7 @@
         <v>0.9999979920972617</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -7071,7 +7319,7 @@
         <v>2.4080363126929706E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -7079,12 +7327,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>15</v>
@@ -7102,7 +7350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -7122,7 +7370,7 @@
         <v>6.6930113676180744E-7</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -7136,7 +7384,7 @@
         <v>5.7986388832479583E-6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -7150,8 +7398,8 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>20</v>
@@ -7178,7 +7426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -7207,7 +7455,7 @@
         <v>9.6071049801128066</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -7236,13 +7484,13 @@
         <v>-0.99308664963770077</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>29</v>
       </c>
@@ -7253,7 +7501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1</v>
       </c>
@@ -7264,7 +7512,7 @@
         <v>-1.4000055714631365E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2</v>
       </c>
@@ -7275,7 +7523,7 @@
         <v>2.400377747572513E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>3</v>
       </c>
@@ -7286,7 +7534,7 @@
         <v>7.9886675728513268E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>4</v>
       </c>
@@ -7311,9 +7559,9 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -7321,7 +7569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-7.1286866523288334E-2</v>
       </c>
@@ -7329,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-6.3931425285134402E-2</v>
       </c>
@@ -7337,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-5.6575984046980471E-2</v>
       </c>
@@ -7345,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>-4.9220542808826546E-2</v>
       </c>
@@ -7353,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>-4.1865101570672622E-2</v>
       </c>
@@ -7361,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>-3.4509660332518698E-2</v>
       </c>
@@ -7369,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>-2.7154219094364773E-2</v>
       </c>
@@ -7377,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>-1.9798777856210849E-2</v>
       </c>
@@ -7385,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>-1.2443336618056923E-2</v>
       </c>
@@ -7393,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>-5.0878953799029965E-3</v>
       </c>
@@ -7401,7 +7649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2.2675458582509297E-3</v>
       </c>
@@ -7409,7 +7657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.6229870964048558E-3</v>
       </c>
@@ -7417,7 +7665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -7438,25 +7686,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093AC943-1C20-4537-8D1B-941FBE52F89D}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+    <sheetView topLeftCell="D34" workbookViewId="0">
       <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7464,7 +7712,7 @@
         <v>0.99999917651268544</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7472,7 +7720,7 @@
         <v>0.999998353026049</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7480,7 +7728,7 @@
         <v>0.99999827816359665</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7488,7 +7736,7 @@
         <v>2.4416843642503078E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -7496,12 +7744,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -7519,7 +7767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7539,7 +7787,7 @@
         <v>4.0677065331858111E-65</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7553,7 +7801,7 @@
         <v>5.9618225346244293E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -7567,8 +7815,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -7595,7 +7843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -7624,7 +7872,7 @@
         <v>9.5939581728565724</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -7653,12 +7901,12 @@
         <v>-0.99579136416505165</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>35</v>
       </c>
@@ -7681,7 +7929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -7713,7 +7961,7 @@
         <v>9.5926378938558088</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7745,7 +7993,7 @@
         <v>-0.99659470039106857</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -7787,7 +8035,7 @@
         <v>7.1011511428781375</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -7829,7 +8077,7 @@
         <v>1.6198802907272603</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -7840,11 +8088,11 @@
         <v>-1.8990842932611329E-3</v>
       </c>
       <c r="F28">
-        <f>F26-$E$26</f>
+        <f t="shared" ref="F28:K28" si="2">F26-$E$26</f>
         <v>-1.2614070255905219E-3</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:J28" si="2">G26-$E$26</f>
+        <f t="shared" si="2"/>
         <v>-1.2614070255905219E-3</v>
       </c>
       <c r="H28">
@@ -7860,11 +8108,11 @@
         <v>7.6941495367073287E-3</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28" si="3">K26-$E$26</f>
+        <f t="shared" si="2"/>
         <v>8.0599098982148121E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5</v>
       </c>
@@ -7875,31 +8123,31 @@
         <v>-3.5271600622550636E-3</v>
       </c>
       <c r="F29">
-        <f>F27-$E$27</f>
+        <f t="shared" ref="F29:K29" si="3">F27-$E$27</f>
         <v>-1.6990992436456409E-3</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:J29" si="4">G27-$E$27</f>
+        <f t="shared" si="3"/>
         <v>-1.6990992436456409E-3</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.9530580358440019E-3</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2722773477840121E-3</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-5.2763297962227895E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" ref="K29" si="5">K27-$E$27</f>
+        <f t="shared" si="3"/>
         <v>-5.0284721983206992E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
@@ -7910,7 +8158,7 @@
         <v>-3.424802550778594E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>7</v>
       </c>
@@ -7921,7 +8169,7 @@
         <v>5.7550812059226075E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8</v>
       </c>
@@ -7932,7 +8180,7 @@
         <v>-5.1320832422607765E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>9</v>
       </c>
@@ -7958,7 +8206,7 @@
         <v>7.6941495367073287E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>10</v>
       </c>
@@ -7984,7 +8232,7 @@
         <v>-5.2763297962227895E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>11</v>
       </c>
@@ -8007,7 +8255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>12</v>
       </c>
@@ -8033,7 +8281,7 @@
         <v>9.8916666666661879E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>13</v>
       </c>
@@ -8059,7 +8307,7 @@
         <v>7.041666666667501E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>14</v>
       </c>
@@ -8085,7 +8333,7 @@
         <v>1.3071666666667481E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>15</v>
       </c>
@@ -8111,7 +8359,7 @@
         <v>-2.1908333333333418E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>16</v>
       </c>
@@ -8137,7 +8385,7 @@
         <v>-2.7183333333316018E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>17</v>
       </c>
@@ -8163,7 +8411,7 @@
         <v>5.2316666666658573E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>18</v>
       </c>
@@ -8183,7 +8431,7 @@
         <v>1.8031666666668E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>19</v>
       </c>
@@ -8203,7 +8451,7 @@
         <v>-1.4048333333332552E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>20</v>
       </c>
@@ -8223,7 +8471,7 @@
         <v>2.8061666666666651E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>21</v>
       </c>
@@ -8243,7 +8491,7 @@
         <v>1.3381666666666403E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>22</v>
       </c>
@@ -8263,7 +8511,7 @@
         <v>3.1816666666679705E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>23</v>
       </c>
@@ -8274,7 +8522,7 @@
         <v>1.4615994557960477E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>24</v>
       </c>
@@ -8294,6 +8542,952 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A638BB05-FCA3-4AAB-B9CD-EF27C7331DF1}">
+  <dimension ref="B1:L97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>12.307499999999999</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>12.3018</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3">
+        <v>12.307500000000003</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>12.3116</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>6.8652333224318704E-4</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>12.307399999999999</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>12.307449999999999</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5">
+        <f>F3</f>
+        <v>12.307500000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>12.307700000000001</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>12.3116</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <f>F7</f>
+        <v>4.8544530367194277E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>12.3127</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>4.8544530367194277E-3</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7">
+        <f>6*I6</f>
+        <v>2.9126718220316566E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>12.3035</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8">
+        <v>2.3565714285714474E-5</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="L8">
+        <f>0.02/0.0372</f>
+        <v>0.53763440860215062</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>12.298500000000001</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>-0.45006936915893192</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="16">
+        <v>12.285</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>12.305899999999999</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>8.7586436736586698E-2</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="16">
+        <v>12.335000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7">
+        <v>12.3127</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>2.1100000000000563E-2</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11">
+        <f>I10-I9</f>
+        <v>5.0000000000000711E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="11">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12.3096</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12">
+        <v>12.2979</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12">
+        <v>1E-4</v>
+      </c>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="11">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>12.309200000000001</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13">
+        <v>12.319000000000001</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="17">
+        <f>I12/I11</f>
+        <v>1.9999999999999719E-3</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="11">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7">
+        <v>12.303599999999999</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14">
+        <v>615.37500000000011</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="11">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7">
+        <v>12.319000000000001</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <f>I14*I11</f>
+        <v>1.0000000000000142E-2</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="11">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12.3086</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.3796202881873577E-3</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16">
+        <f>I15/I7</f>
+        <v>0.34332738499268717</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="11">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>12.3154</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="11">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12.3009</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="11">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7">
+        <v>12.305400000000001</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="11">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7">
+        <v>12.3132</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="11">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>12.2995</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="11">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7">
+        <v>12.3142</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="11">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7">
+        <v>12.301399999999999</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="11">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7">
+        <v>12.3055</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="11">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7">
+        <v>12.3028</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="13">
+        <v>25</v>
+      </c>
+      <c r="C26" s="14">
+        <v>12.3096</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="7">
+        <v>26</v>
+      </c>
+      <c r="C27" s="12">
+        <v>12.302300000000001</v>
+      </c>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="7">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12">
+        <v>12.2979</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="7">
+        <v>28</v>
+      </c>
+      <c r="C29" s="12">
+        <v>12.309100000000001</v>
+      </c>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="7">
+        <v>29</v>
+      </c>
+      <c r="C30" s="12">
+        <v>12.309100000000001</v>
+      </c>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="7">
+        <v>30</v>
+      </c>
+      <c r="C31" s="12">
+        <v>12.301</v>
+      </c>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="7">
+        <v>31</v>
+      </c>
+      <c r="C32" s="12">
+        <v>12.3102</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="7">
+        <v>32</v>
+      </c>
+      <c r="C33" s="12">
+        <v>12.306800000000001</v>
+      </c>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="7">
+        <v>33</v>
+      </c>
+      <c r="C34" s="12">
+        <v>12.3116</v>
+      </c>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="7">
+        <v>34</v>
+      </c>
+      <c r="C35" s="12">
+        <v>12.302899999999999</v>
+      </c>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="7">
+        <v>35</v>
+      </c>
+      <c r="C36" s="12">
+        <v>12.304500000000001</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="7">
+        <v>36</v>
+      </c>
+      <c r="C37" s="12">
+        <v>12.303000000000001</v>
+      </c>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="7">
+        <v>37</v>
+      </c>
+      <c r="C38" s="12">
+        <v>12.306800000000001</v>
+      </c>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="7">
+        <v>38</v>
+      </c>
+      <c r="C39" s="12">
+        <v>12.315300000000001</v>
+      </c>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="7">
+        <v>39</v>
+      </c>
+      <c r="C40" s="12">
+        <v>12.3072</v>
+      </c>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="7">
+        <v>40</v>
+      </c>
+      <c r="C41" s="12">
+        <v>12.309699999999999</v>
+      </c>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="7">
+        <v>41</v>
+      </c>
+      <c r="C42" s="12">
+        <v>12.3104</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="7">
+        <v>42</v>
+      </c>
+      <c r="C43" s="12">
+        <v>12.307600000000001</v>
+      </c>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="7">
+        <v>43</v>
+      </c>
+      <c r="C44" s="12">
+        <v>12.3071</v>
+      </c>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="7">
+        <v>44</v>
+      </c>
+      <c r="C45" s="12">
+        <v>12.3162</v>
+      </c>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="7">
+        <v>45</v>
+      </c>
+      <c r="C46" s="12">
+        <v>12.3117</v>
+      </c>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="7">
+        <v>46</v>
+      </c>
+      <c r="C47" s="12">
+        <v>12.3104</v>
+      </c>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="7">
+        <v>47</v>
+      </c>
+      <c r="C48" s="12">
+        <v>12.3066</v>
+      </c>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="7">
+        <v>48</v>
+      </c>
+      <c r="C49" s="12">
+        <v>12.3019</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="F49">
+        <v>6.0000000000037801E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="7">
+        <v>49</v>
+      </c>
+      <c r="C50" s="12">
+        <v>12.3124</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="14">
+        <v>50</v>
+      </c>
+      <c r="C51" s="15">
+        <v>12.306100000000001</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D52" s="15"/>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <v>9.9999999999766942E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <v>9.9999999999766942E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <v>9.9999999999766942E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>9.9999999999766942E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <v>9.9999999999766942E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <v>9.9999999999766942E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>9.9999999999766942E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <v>9.9999999999766942E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <v>9.9999999999766942E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <v>9.9999999999766942E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <v>9.9999999999766942E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <v>9.9999999999766942E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <v>1.000000000015433E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <v>1.000000000015433E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <v>1.9999999999953388E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <v>1.9999999999953388E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <v>2.0000000000131024E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <v>2.0000000000131024E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <v>2.9999999999930083E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <v>2.9999999999930083E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <v>3.9999999999906777E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <v>3.9999999999906777E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <v>3.9999999999906777E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <v>4.0000000000084412E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <v>4.0000000000084412E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <v>4.9999999999883471E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F82">
+        <v>4.9999999999883471E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F83">
+        <v>4.9999999999883471E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F84">
+        <v>5.0000000000061107E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F85">
+        <v>5.0000000000061107E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F86">
+        <v>5.0000000000061107E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F87">
+        <v>7.0000000000014495E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F88">
+        <v>7.9999999999991189E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F89">
+        <v>8.9999999999967883E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F90">
+        <v>8.9999999999967883E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F91">
+        <v>9.0000000000145519E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F92">
+        <v>9.9999999999944578E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F93">
+        <v>9.9999999999944578E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F94">
+        <v>1.1000000000009891E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F95">
+        <v>1.200000000000756E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F96">
+        <v>1.4000000000002899E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F97">
+        <v>2.8000000000005798E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C51">
+    <sortCondition ref="B2:B51"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18124734-E69E-4BFD-82FD-0ACA08A6D465}">
   <dimension ref="A1:H54"/>
   <sheetViews>
@@ -8301,12 +9495,12 @@
       <selection activeCell="C51" sqref="C51:C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -8318,7 +9512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8332,7 +9526,7 @@
         <v>2.5259999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -8346,7 +9540,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -8360,7 +9554,7 @@
         <v>5.5030000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -8374,7 +9568,7 @@
         <v>6.5039999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -8388,19 +9582,19 @@
         <v>7.492</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>0</v>
@@ -8412,7 +9606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -8426,7 +9620,7 @@
         <v>2.4790000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -8440,7 +9634,7 @@
         <v>3.6269999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -8454,7 +9648,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -8468,7 +9662,7 @@
         <v>6.5270000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -8482,7 +9676,7 @@
         <v>7.508</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -8499,7 +9693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -8519,7 +9713,7 @@
         <v>2.4769999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8539,7 +9733,7 @@
         <v>3.5219999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
@@ -8559,7 +9753,7 @@
         <v>4.4109999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4</v>
       </c>
@@ -8579,7 +9773,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>5</v>
       </c>
@@ -8599,7 +9793,7 @@
         <v>7.5940000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G23">
         <v>7.1879999999999997</v>
       </c>
@@ -8607,7 +9801,7 @@
         <v>2.4260000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G24">
         <v>6.09</v>
       </c>
@@ -8615,7 +9809,7 @@
         <v>3.524</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -8632,7 +9826,7 @@
         <v>5.4130000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -8652,7 +9846,7 @@
         <v>6.5030000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8672,7 +9866,7 @@
         <v>7.4009999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
@@ -8692,7 +9886,7 @@
         <v>2.5230000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -8712,7 +9906,7 @@
         <v>3.516</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>5</v>
       </c>
@@ -8732,7 +9926,7 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G31">
         <v>3.0990000000000002</v>
       </c>
@@ -8740,7 +9934,7 @@
         <v>6.5030000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G32">
         <v>2.2000000000000002</v>
       </c>
@@ -8748,7 +9942,7 @@
         <v>7.3959999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -8765,7 +9959,7 @@
         <v>2.431</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -8785,7 +9979,7 @@
         <v>3.524</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2</v>
       </c>
@@ -8805,7 +9999,7 @@
         <v>5.5149999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3</v>
       </c>
@@ -8825,7 +10019,7 @@
         <v>6.5110000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4</v>
       </c>
@@ -8845,7 +10039,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>5</v>
       </c>
@@ -8865,7 +10059,7 @@
         <v>3.5150000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G39">
         <v>4.0999999999999996</v>
       </c>
@@ -8873,7 +10067,7 @@
         <v>5.5090000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G40">
         <v>3.1019999999999999</v>
       </c>
@@ -8881,7 +10075,7 @@
         <v>6.5019999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -8898,7 +10092,7 @@
         <v>7.4950000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -8912,7 +10106,7 @@
         <v>2.431</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -8926,7 +10120,7 @@
         <v>3.524</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>3</v>
       </c>
@@ -8940,7 +10134,7 @@
         <v>5.5149999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>4</v>
       </c>
@@ -8960,7 +10154,7 @@
         <v>2.6230000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5</v>
       </c>
@@ -8974,7 +10168,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -8985,7 +10179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>1</v>
       </c>
@@ -8999,7 +10193,7 @@
         <v>2.6230000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2</v>
       </c>
@@ -9013,7 +10207,7 @@
         <v>3.5150000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3</v>
       </c>
@@ -9027,7 +10221,7 @@
         <v>5.5090000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>4</v>
       </c>
@@ -9041,7 +10235,7 @@
         <v>6.5019999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>5</v>
       </c>
